--- a/0755 Fantasy Football.xlsx
+++ b/0755 Fantasy Football.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="30">
   <si>
     <t>MOTHER MAY I</t>
   </si>
@@ -52,22 +52,25 @@
     <t>Teams</t>
   </si>
   <si>
-    <t>4 - 3 - 0</t>
-  </si>
-  <si>
-    <t>5 - 2 - 0</t>
-  </si>
-  <si>
-    <t>3 - 4 - 0</t>
-  </si>
-  <si>
-    <t>2 - 5 - 0</t>
-  </si>
-  <si>
-    <t>1 - 6 - 0</t>
-  </si>
-  <si>
-    <t>6 - 1 - 0</t>
+    <t>5 - 3 - 0</t>
+  </si>
+  <si>
+    <t>6 - 2 - 0</t>
+  </si>
+  <si>
+    <t>3 - 5 - 0</t>
+  </si>
+  <si>
+    <t>4 - 4 - 0</t>
+  </si>
+  <si>
+    <t>2 - 6 - 0</t>
+  </si>
+  <si>
+    <t>1 - 7 - 0</t>
+  </si>
+  <si>
+    <t>7 - 1 - 0</t>
   </si>
   <si>
     <t>Avg Wins Against Schedule</t>
@@ -83,6 +86,27 @@
   </si>
   <si>
     <t>Louie Power Index (LPI)</t>
+  </si>
+  <si>
+    <t>Change From Last Week</t>
+  </si>
+  <si>
+    <t>+2</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>+4</t>
+  </si>
+  <si>
+    <t>-3</t>
+  </si>
+  <si>
+    <t>-2</t>
+  </si>
+  <si>
+    <t>-5</t>
   </si>
 </sst>
 </file>
@@ -492,7 +516,7 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -504,16 +528,16 @@
         <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I2" t="s">
         <v>11</v>
       </c>
       <c r="J2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -524,19 +548,19 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
         <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H3" t="s">
         <v>11</v>
@@ -545,7 +569,7 @@
         <v>12</v>
       </c>
       <c r="J3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K3" t="s">
         <v>13</v>
@@ -562,10 +586,10 @@
         <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
         <v>13</v>
@@ -574,16 +598,16 @@
         <v>13</v>
       </c>
       <c r="H4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -594,28 +618,28 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G5" t="s">
         <v>13</v>
       </c>
       <c r="H5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K5" t="s">
         <v>13</v>
@@ -626,22 +650,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s">
         <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H6" t="s">
         <v>11</v>
@@ -653,7 +677,7 @@
         <v>13</v>
       </c>
       <c r="K6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -664,22 +688,22 @@
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F7" t="s">
         <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I7" t="s">
         <v>11</v>
@@ -696,7 +720,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -705,25 +729,25 @@
         <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K8" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -740,13 +764,13 @@
         <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
         <v>11</v>
@@ -766,34 +790,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" t="s">
         <v>15</v>
       </c>
-      <c r="D10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" t="s">
-        <v>14</v>
-      </c>
       <c r="I10" t="s">
         <v>13</v>
       </c>
       <c r="J10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -804,31 +828,31 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
         <v>16</v>
       </c>
-      <c r="E11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" t="s">
-        <v>15</v>
-      </c>
       <c r="G11" t="s">
         <v>13</v>
       </c>
       <c r="H11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J11" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -849,10 +873,10 @@
         <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -860,13 +884,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -874,13 +898,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -888,10 +912,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
@@ -905,10 +929,10 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -916,10 +940,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C6">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="D6" t="s">
         <v>11</v>
@@ -930,13 +954,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7">
-        <v>3.7</v>
+        <v>4.4</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -944,13 +968,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C8">
-        <v>3.7</v>
+        <v>4.5</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -958,10 +982,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>3.8</v>
+        <v>4.6</v>
       </c>
       <c r="D9" t="s">
         <v>11</v>
@@ -972,10 +996,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="D10" t="s">
         <v>11</v>
@@ -986,13 +1010,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C11">
-        <v>4.5</v>
+        <v>4.9</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1013,13 +1037,13 @@
         <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1030,13 +1054,13 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="D2">
-        <v>-0.5</v>
+        <v>-0.2999999999999998</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1044,13 +1068,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C3">
-        <v>3.9</v>
+        <v>4.7</v>
       </c>
       <c r="D3">
-        <v>-0.1000000000000001</v>
+        <v>-0.2999999999999998</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
@@ -1061,16 +1085,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="D4">
-        <v>-1.1</v>
+        <v>0.5</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1078,16 +1102,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>3.7</v>
+        <v>4.3</v>
       </c>
       <c r="D5">
-        <v>-0.2999999999999998</v>
+        <v>0.2999999999999998</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1095,16 +1119,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="D6">
-        <v>0.6000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1112,16 +1136,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C7">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="D7">
-        <v>1.5</v>
+        <v>-0.7999999999999998</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1129,16 +1153,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C8">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="D8">
-        <v>-0.6000000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1146,16 +1170,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C9">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="D9">
-        <v>0.2999999999999998</v>
+        <v>-0.5</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1163,16 +1187,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C10">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="D10">
-        <v>-0.2999999999999998</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1183,13 +1207,13 @@
         <v>8</v>
       </c>
       <c r="C11">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="D11">
-        <v>0.5</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1199,24 +1223,27 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>19</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1224,13 +1251,16 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1238,13 +1268,16 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1255,10 +1288,13 @@
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1266,27 +1302,33 @@
         <v>9</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1297,15 +1339,18 @@
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>-1</v>
@@ -1313,8 +1358,11 @@
       <c r="D8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1325,35 +1373,44 @@
         <v>-10</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C10">
-        <v>-10</v>
+        <v>-12</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>15</v>
+      </c>
+      <c r="E10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C11">
-        <v>-10</v>
+        <v>-15</v>
       </c>
       <c r="D11" t="s">
         <v>14</v>
+      </c>
+      <c r="E11" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/0755 Fantasy Football.xlsx
+++ b/0755 Fantasy Football.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="31">
   <si>
     <t>MOTHER MAY I</t>
   </si>
@@ -52,25 +52,22 @@
     <t>Teams</t>
   </si>
   <si>
-    <t>5 - 3 - 0</t>
-  </si>
-  <si>
-    <t>6 - 2 - 0</t>
-  </si>
-  <si>
-    <t>3 - 5 - 0</t>
-  </si>
-  <si>
-    <t>4 - 4 - 0</t>
-  </si>
-  <si>
-    <t>2 - 6 - 0</t>
-  </si>
-  <si>
-    <t>1 - 7 - 0</t>
-  </si>
-  <si>
-    <t>7 - 1 - 0</t>
+    <t>6 - 3 - 0</t>
+  </si>
+  <si>
+    <t>5 - 4 - 0</t>
+  </si>
+  <si>
+    <t>3 - 6 - 0</t>
+  </si>
+  <si>
+    <t>4 - 5 - 0</t>
+  </si>
+  <si>
+    <t>2 - 7 - 0</t>
+  </si>
+  <si>
+    <t>7 - 2 - 0</t>
   </si>
   <si>
     <t>Avg Wins Against Schedule</t>
@@ -91,22 +88,28 @@
     <t>Change From Last Week</t>
   </si>
   <si>
-    <t>+2</t>
+    <t>+6</t>
+  </si>
+  <si>
+    <t>+1</t>
+  </si>
+  <si>
+    <t>-5</t>
+  </si>
+  <si>
+    <t>-2</t>
+  </si>
+  <si>
+    <t>+8</t>
+  </si>
+  <si>
+    <t>-1</t>
+  </si>
+  <si>
+    <t>-7</t>
   </si>
   <si>
     <t>0</t>
-  </si>
-  <si>
-    <t>+4</t>
-  </si>
-  <si>
-    <t>-3</t>
-  </si>
-  <si>
-    <t>-2</t>
-  </si>
-  <si>
-    <t>-5</t>
   </si>
 </sst>
 </file>
@@ -516,28 +519,28 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I2" t="s">
         <v>11</v>
       </c>
       <c r="J2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -545,13 +548,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
         <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
@@ -563,10 +566,10 @@
         <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J3" t="s">
         <v>14</v>
@@ -580,25 +583,25 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
         <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G4" t="s">
         <v>13</v>
       </c>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I4" t="s">
         <v>11</v>
@@ -607,7 +610,7 @@
         <v>11</v>
       </c>
       <c r="K4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -621,25 +624,25 @@
         <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
         <v>11</v>
       </c>
       <c r="I5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K5" t="s">
         <v>13</v>
@@ -653,28 +656,28 @@
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G6" t="s">
         <v>13</v>
       </c>
       <c r="H6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I6" t="s">
         <v>11</v>
       </c>
       <c r="J6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K6" t="s">
         <v>14</v>
@@ -685,31 +688,31 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I7" t="s">
         <v>11</v>
       </c>
       <c r="J7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K7" t="s">
         <v>13</v>
@@ -729,10 +732,10 @@
         <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G8" t="s">
         <v>14</v>
@@ -741,10 +744,10 @@
         <v>14</v>
       </c>
       <c r="I8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K8" t="s">
         <v>14</v>
@@ -755,16 +758,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F9" t="s">
         <v>14</v>
@@ -773,16 +776,16 @@
         <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
       </c>
       <c r="K9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -790,31 +793,31 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K10" t="s">
         <v>15</v>
@@ -825,34 +828,34 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
         <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I11" t="s">
         <v>11</v>
       </c>
       <c r="J11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -873,10 +876,10 @@
         <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -884,10 +887,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="D2" t="s">
         <v>14</v>
@@ -901,10 +904,10 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -912,13 +915,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C4">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -926,13 +929,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -940,13 +943,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6">
-        <v>3.8</v>
+        <v>4.7</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -954,10 +957,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>4.4</v>
+        <v>4.8</v>
       </c>
       <c r="D7" t="s">
         <v>11</v>
@@ -971,7 +974,7 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D8" t="s">
         <v>14</v>
@@ -982,13 +985,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C9">
-        <v>4.6</v>
+        <v>5.1</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -996,13 +999,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C10">
-        <v>4.7</v>
+        <v>5.2</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1013,10 +1016,10 @@
         <v>3</v>
       </c>
       <c r="C11">
-        <v>4.9</v>
+        <v>5.5</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1037,13 +1040,13 @@
         <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1051,13 +1054,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>4.7</v>
+        <v>5.5</v>
       </c>
       <c r="D2">
-        <v>-0.2999999999999998</v>
+        <v>0.5</v>
       </c>
       <c r="E2" t="s">
         <v>11</v>
@@ -1068,16 +1071,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="D3">
-        <v>-0.2999999999999998</v>
+        <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1085,16 +1088,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C4">
-        <v>4.5</v>
+        <v>4.9</v>
       </c>
       <c r="D4">
-        <v>0.5</v>
+        <v>-0.09999999999999964</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1102,16 +1105,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C5">
-        <v>4.3</v>
+        <v>4.8</v>
       </c>
       <c r="D5">
-        <v>0.2999999999999998</v>
+        <v>-0.2000000000000002</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1119,16 +1122,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="D6">
-        <v>1.2</v>
+        <v>0.5999999999999996</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1136,16 +1139,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="D7">
-        <v>-0.7999999999999998</v>
+        <v>1.5</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1153,16 +1156,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="D8">
-        <v>0.8999999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1170,16 +1173,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C9">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="D9">
-        <v>-0.5</v>
+        <v>1.1</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1187,13 +1190,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C10">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="D10">
-        <v>0.3999999999999999</v>
+        <v>-0.1000000000000001</v>
       </c>
       <c r="E10" t="s">
         <v>14</v>
@@ -1207,13 +1210,13 @@
         <v>8</v>
       </c>
       <c r="C11">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="D11">
-        <v>0.6000000000000001</v>
+        <v>1.5</v>
       </c>
       <c r="E11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1234,13 +1237,13 @@
         <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1248,16 +1251,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C2">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1265,13 +1268,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
         <v>24</v>
@@ -1282,13 +1285,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4">
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
         <v>25</v>
@@ -1299,16 +1302,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1316,16 +1319,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6">
         <v>7</v>
       </c>
-      <c r="C6">
-        <v>3</v>
-      </c>
       <c r="D6" t="s">
         <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1336,13 +1339,13 @@
         <v>2</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1350,16 +1353,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C8">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1370,13 +1373,13 @@
         <v>6</v>
       </c>
       <c r="C9">
-        <v>-10</v>
+        <v>-11</v>
       </c>
       <c r="D9" t="s">
         <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1390,10 +1393,10 @@
         <v>-12</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1404,13 +1407,13 @@
         <v>3</v>
       </c>
       <c r="C11">
-        <v>-15</v>
+        <v>-14</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/0755 Fantasy Football.xlsx
+++ b/0755 Fantasy Football.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="30">
   <si>
     <t>MOTHER MAY I</t>
   </si>
@@ -52,22 +52,25 @@
     <t>Teams</t>
   </si>
   <si>
-    <t>6 - 3 - 0</t>
-  </si>
-  <si>
-    <t>5 - 4 - 0</t>
-  </si>
-  <si>
-    <t>3 - 6 - 0</t>
-  </si>
-  <si>
-    <t>4 - 5 - 0</t>
-  </si>
-  <si>
-    <t>2 - 7 - 0</t>
-  </si>
-  <si>
-    <t>7 - 2 - 0</t>
+    <t>7 - 3 - 0</t>
+  </si>
+  <si>
+    <t>5 - 5 - 0</t>
+  </si>
+  <si>
+    <t>6 - 4 - 0</t>
+  </si>
+  <si>
+    <t>3 - 7 - 0</t>
+  </si>
+  <si>
+    <t>4 - 6 - 0</t>
+  </si>
+  <si>
+    <t>2 - 8 - 0</t>
+  </si>
+  <si>
+    <t>8 - 2 - 0</t>
   </si>
   <si>
     <t>Avg Wins Against Schedule</t>
@@ -88,28 +91,22 @@
     <t>Change From Last Week</t>
   </si>
   <si>
-    <t>+6</t>
+    <t>+7</t>
+  </si>
+  <si>
+    <t>+5</t>
+  </si>
+  <si>
+    <t>-1</t>
+  </si>
+  <si>
+    <t>-4</t>
+  </si>
+  <si>
+    <t>-2</t>
   </si>
   <si>
     <t>+1</t>
-  </si>
-  <si>
-    <t>-5</t>
-  </si>
-  <si>
-    <t>-2</t>
-  </si>
-  <si>
-    <t>+8</t>
-  </si>
-  <si>
-    <t>-1</t>
-  </si>
-  <si>
-    <t>-7</t>
-  </si>
-  <si>
-    <t>0</t>
   </si>
 </sst>
 </file>
@@ -519,28 +516,28 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I2" t="s">
         <v>11</v>
       </c>
       <c r="J2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -551,31 +548,31 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -583,25 +580,25 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I4" t="s">
         <v>11</v>
@@ -610,7 +607,7 @@
         <v>11</v>
       </c>
       <c r="K4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -618,34 +615,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H5" t="s">
         <v>11</v>
       </c>
       <c r="I5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -653,13 +650,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
         <v>11</v>
@@ -668,19 +665,19 @@
         <v>12</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I6" t="s">
         <v>11</v>
       </c>
       <c r="J6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -688,34 +685,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
         <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
         <v>12</v>
       </c>
       <c r="I7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -723,34 +720,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -761,19 +758,19 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H9" t="s">
         <v>12</v>
@@ -793,34 +790,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -831,28 +828,28 @@
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s">
         <v>16</v>
       </c>
-      <c r="E11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" t="s">
-        <v>15</v>
-      </c>
       <c r="G11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H11" t="s">
         <v>12</v>
       </c>
       <c r="I11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K11" t="s">
         <v>12</v>
@@ -876,10 +873,10 @@
         <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -887,10 +884,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C2">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="D2" t="s">
         <v>14</v>
@@ -901,13 +898,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -918,7 +915,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
@@ -932,7 +929,7 @@
         <v>9</v>
       </c>
       <c r="C5">
-        <v>3.9</v>
+        <v>4.4</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -943,13 +940,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -957,13 +954,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C7">
-        <v>4.8</v>
+        <v>5.6</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -974,10 +971,10 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>5</v>
+        <v>5.7</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -985,10 +982,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C9">
-        <v>5.1</v>
+        <v>5.8</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
@@ -999,13 +996,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C10">
-        <v>5.2</v>
+        <v>5.9</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1016,10 +1013,10 @@
         <v>3</v>
       </c>
       <c r="C11">
-        <v>5.5</v>
+        <v>6.1</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1040,13 +1037,13 @@
         <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1057,10 +1054,10 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>5.5</v>
+        <v>6.4</v>
       </c>
       <c r="D2">
-        <v>0.5</v>
+        <v>0.4000000000000004</v>
       </c>
       <c r="E2" t="s">
         <v>11</v>
@@ -1074,13 +1071,13 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>5.6</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>-0.4000000000000004</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1088,13 +1085,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C4">
-        <v>4.9</v>
+        <v>5.3</v>
       </c>
       <c r="D4">
-        <v>-0.09999999999999964</v>
+        <v>0.2999999999999998</v>
       </c>
       <c r="E4" t="s">
         <v>12</v>
@@ -1108,10 +1105,10 @@
         <v>7</v>
       </c>
       <c r="C5">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="D5">
-        <v>-0.2000000000000002</v>
+        <v>0</v>
       </c>
       <c r="E5" t="s">
         <v>12</v>
@@ -1122,13 +1119,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C6">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="D6">
-        <v>0.5999999999999996</v>
+        <v>0</v>
       </c>
       <c r="E6" t="s">
         <v>12</v>
@@ -1139,13 +1136,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C7">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="D7">
-        <v>1.5</v>
+        <v>0.7999999999999998</v>
       </c>
       <c r="E7" t="s">
         <v>13</v>
@@ -1159,13 +1156,13 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="D8">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1173,16 +1170,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C9">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="D9">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1190,16 +1187,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C10">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="D10">
-        <v>-0.1000000000000001</v>
+        <v>1.5</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1207,16 +1204,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C11">
-        <v>3.5</v>
+        <v>4.4</v>
       </c>
       <c r="D11">
-        <v>1.5</v>
+        <v>0.4000000000000004</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1237,13 +1234,13 @@
         <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1251,16 +1248,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1268,16 +1265,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1285,16 +1282,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4">
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1305,10 +1302,10 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
         <v>26</v>
@@ -1319,13 +1316,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
         <v>27</v>
@@ -1339,10 +1336,10 @@
         <v>2</v>
       </c>
       <c r="C7">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
         <v>28</v>
@@ -1356,13 +1353,13 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>-4</v>
+        <v>-8</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1370,16 +1367,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C9">
         <v>-11</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1387,16 +1384,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C10">
-        <v>-12</v>
+        <v>-13</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1407,13 +1404,13 @@
         <v>3</v>
       </c>
       <c r="C11">
-        <v>-14</v>
+        <v>-13</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E11" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/0755 Fantasy Football.xlsx
+++ b/0755 Fantasy Football.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="32">
   <si>
     <t>MOTHER MAY I</t>
   </si>
@@ -52,25 +52,28 @@
     <t>Teams</t>
   </si>
   <si>
-    <t>7 - 3 - 0</t>
-  </si>
-  <si>
-    <t>5 - 5 - 0</t>
-  </si>
-  <si>
-    <t>6 - 4 - 0</t>
-  </si>
-  <si>
-    <t>3 - 7 - 0</t>
-  </si>
-  <si>
-    <t>4 - 6 - 0</t>
-  </si>
-  <si>
-    <t>2 - 8 - 0</t>
-  </si>
-  <si>
-    <t>8 - 2 - 0</t>
+    <t>7 - 4 - 0</t>
+  </si>
+  <si>
+    <t>5 - 6 - 0</t>
+  </si>
+  <si>
+    <t>6 - 5 - 0</t>
+  </si>
+  <si>
+    <t>3 - 8 - 0</t>
+  </si>
+  <si>
+    <t>4 - 7 - 0</t>
+  </si>
+  <si>
+    <t>8 - 3 - 0</t>
+  </si>
+  <si>
+    <t>2 - 9 - 0</t>
+  </si>
+  <si>
+    <t>9 - 2 - 0</t>
   </si>
   <si>
     <t>Avg Wins Against Schedule</t>
@@ -91,19 +94,22 @@
     <t>Change From Last Week</t>
   </si>
   <si>
+    <t>+5</t>
+  </si>
+  <si>
+    <t>-1</t>
+  </si>
+  <si>
+    <t>+3</t>
+  </si>
+  <si>
     <t>+7</t>
   </si>
   <si>
-    <t>+5</t>
-  </si>
-  <si>
-    <t>-1</t>
-  </si>
-  <si>
-    <t>-4</t>
-  </si>
-  <si>
-    <t>-2</t>
+    <t>-3</t>
+  </si>
+  <si>
+    <t>-5</t>
   </si>
   <si>
     <t>+1</t>
@@ -519,7 +525,7 @@
         <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
@@ -557,13 +563,13 @@
         <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G3" t="s">
         <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I3" t="s">
         <v>13</v>
@@ -583,31 +589,31 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I4" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="J4" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="K4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -624,7 +630,7 @@
         <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
         <v>14</v>
@@ -633,16 +639,16 @@
         <v>15</v>
       </c>
       <c r="H5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I5" t="s">
         <v>15</v>
       </c>
       <c r="J5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -653,31 +659,31 @@
         <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
         <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F6" t="s">
         <v>12</v>
       </c>
       <c r="G6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I6" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="J6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -688,31 +694,31 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
         <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F7" t="s">
         <v>15</v>
       </c>
       <c r="G7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -720,34 +726,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -758,14 +764,14 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
         <v>16</v>
       </c>
-      <c r="D9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" t="s">
-        <v>11</v>
-      </c>
       <c r="F9" t="s">
         <v>15</v>
       </c>
@@ -773,16 +779,16 @@
         <v>15</v>
       </c>
       <c r="H9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I9" t="s">
         <v>12</v>
       </c>
       <c r="J9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="K9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -808,7 +814,7 @@
         <v>12</v>
       </c>
       <c r="H10" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I10" t="s">
         <v>12</v>
@@ -817,7 +823,7 @@
         <v>15</v>
       </c>
       <c r="K10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -828,31 +834,31 @@
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D11" t="s">
         <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G11" t="s">
         <v>15</v>
       </c>
       <c r="H11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I11" t="s">
         <v>13</v>
       </c>
       <c r="J11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -873,10 +879,10 @@
         <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -887,10 +893,10 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -898,13 +904,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C3">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -912,13 +918,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -926,13 +932,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>4.4</v>
+        <v>5.1</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -940,13 +946,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -954,13 +960,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>5.6</v>
+        <v>6.1</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -968,10 +974,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C8">
-        <v>5.7</v>
+        <v>6.2</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
@@ -982,13 +988,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9">
-        <v>5.8</v>
+        <v>6.3</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -996,10 +1002,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C10">
-        <v>5.9</v>
+        <v>6.6</v>
       </c>
       <c r="D10" t="s">
         <v>13</v>
@@ -1013,10 +1019,10 @@
         <v>3</v>
       </c>
       <c r="C11">
-        <v>6.1</v>
+        <v>6.8</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1037,13 +1043,13 @@
         <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1051,13 +1057,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="D2">
-        <v>0.4000000000000004</v>
+        <v>-0.5</v>
       </c>
       <c r="E2" t="s">
         <v>11</v>
@@ -1068,16 +1074,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>5.6</v>
+        <v>6.4</v>
       </c>
       <c r="D3">
-        <v>-0.4000000000000004</v>
+        <v>0.4000000000000004</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1088,10 +1094,10 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>5.3</v>
+        <v>6</v>
       </c>
       <c r="D4">
-        <v>0.2999999999999998</v>
+        <v>0</v>
       </c>
       <c r="E4" t="s">
         <v>12</v>
@@ -1105,10 +1111,10 @@
         <v>7</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="E5" t="s">
         <v>12</v>
@@ -1122,13 +1128,13 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1136,13 +1142,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C7">
-        <v>4.8</v>
+        <v>5.4</v>
       </c>
       <c r="D7">
-        <v>0.7999999999999998</v>
+        <v>0.4000000000000004</v>
       </c>
       <c r="E7" t="s">
         <v>13</v>
@@ -1153,16 +1159,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>4.5</v>
+        <v>5.2</v>
       </c>
       <c r="D8">
-        <v>1.5</v>
+        <v>0.2000000000000002</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1173,13 +1179,13 @@
         <v>5</v>
       </c>
       <c r="C9">
-        <v>4.5</v>
+        <v>5.2</v>
       </c>
       <c r="D9">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1190,10 +1196,10 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="D10">
-        <v>1.5</v>
+        <v>0.7000000000000002</v>
       </c>
       <c r="E10" t="s">
         <v>15</v>
@@ -1204,16 +1210,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C11">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="D11">
-        <v>0.4000000000000004</v>
+        <v>1.6</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1234,13 +1240,13 @@
         <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1248,16 +1254,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C2">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1265,16 +1271,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1285,13 +1291,13 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1299,16 +1305,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1319,13 +1325,13 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1333,16 +1339,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7">
         <v>2</v>
       </c>
-      <c r="C7">
-        <v>-3</v>
-      </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1353,13 +1359,13 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>-8</v>
+        <v>-7</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1367,16 +1373,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C9">
-        <v>-11</v>
+        <v>-12</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1384,16 +1390,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C10">
-        <v>-13</v>
+        <v>-16</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1401,16 +1407,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C11">
-        <v>-13</v>
+        <v>-16</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/0755 Fantasy Football.xlsx
+++ b/0755 Fantasy Football.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="35">
   <si>
     <t>MOTHER MAY I</t>
   </si>
@@ -52,28 +52,28 @@
     <t>Teams</t>
   </si>
   <si>
-    <t>7 - 4 - 0</t>
-  </si>
-  <si>
-    <t>5 - 6 - 0</t>
-  </si>
-  <si>
-    <t>6 - 5 - 0</t>
-  </si>
-  <si>
-    <t>3 - 8 - 0</t>
-  </si>
-  <si>
-    <t>4 - 7 - 0</t>
-  </si>
-  <si>
-    <t>8 - 3 - 0</t>
-  </si>
-  <si>
-    <t>2 - 9 - 0</t>
-  </si>
-  <si>
-    <t>9 - 2 - 0</t>
+    <t>8 - 4 - 0</t>
+  </si>
+  <si>
+    <t>6 - 6 - 0</t>
+  </si>
+  <si>
+    <t>7 - 5 - 0</t>
+  </si>
+  <si>
+    <t>4 - 8 - 0</t>
+  </si>
+  <si>
+    <t>5 - 7 - 0</t>
+  </si>
+  <si>
+    <t>9 - 3 - 0</t>
+  </si>
+  <si>
+    <t>3 - 9 - 0</t>
+  </si>
+  <si>
+    <t>2 - 10 - 0</t>
   </si>
   <si>
     <t>Avg Wins Against Schedule</t>
@@ -94,25 +94,34 @@
     <t>Change From Last Week</t>
   </si>
   <si>
+    <t>-1</t>
+  </si>
+  <si>
+    <t>-5</t>
+  </si>
+  <si>
+    <t>+3</t>
+  </si>
+  <si>
+    <t>-7</t>
+  </si>
+  <si>
+    <t>+1</t>
+  </si>
+  <si>
+    <t>-2</t>
+  </si>
+  <si>
+    <t>+2</t>
+  </si>
+  <si>
     <t>+5</t>
   </si>
   <si>
-    <t>-1</t>
-  </si>
-  <si>
-    <t>+3</t>
-  </si>
-  <si>
-    <t>+7</t>
-  </si>
-  <si>
-    <t>-3</t>
-  </si>
-  <si>
-    <t>-5</t>
-  </si>
-  <si>
-    <t>+1</t>
+    <t>+4</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
 </sst>
 </file>
@@ -519,31 +528,31 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
         <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
         <v>15</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -557,7 +566,7 @@
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
         <v>15</v>
@@ -572,13 +581,13 @@
         <v>11</v>
       </c>
       <c r="I3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J3" t="s">
         <v>12</v>
       </c>
       <c r="K3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -592,28 +601,28 @@
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G4" t="s">
         <v>15</v>
       </c>
       <c r="H4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="J4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="K4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -627,7 +636,7 @@
         <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
         <v>11</v>
@@ -659,31 +668,31 @@
         <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
         <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G6" t="s">
         <v>15</v>
       </c>
       <c r="H6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I6" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="J6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -691,34 +700,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E7" t="s">
         <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -767,13 +776,13 @@
         <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E9" t="s">
         <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G9" t="s">
         <v>15</v>
@@ -782,13 +791,13 @@
         <v>13</v>
       </c>
       <c r="I9" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J9" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="K9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -802,7 +811,7 @@
         <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E10" t="s">
         <v>12</v>
@@ -823,7 +832,7 @@
         <v>15</v>
       </c>
       <c r="K10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -831,34 +840,34 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -890,10 +899,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2">
-        <v>4.1</v>
+        <v>4.6</v>
       </c>
       <c r="D2" t="s">
         <v>15</v>
@@ -904,13 +913,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3">
-        <v>4.2</v>
+        <v>4.9</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -921,7 +930,7 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>4.4</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
         <v>15</v>
@@ -932,13 +941,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C5">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -946,13 +955,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>5.2</v>
+        <v>5.9</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -963,10 +972,10 @@
         <v>2</v>
       </c>
       <c r="C7">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -977,10 +986,10 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>6.2</v>
+        <v>6.5</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -991,7 +1000,7 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>6.3</v>
+        <v>6.7</v>
       </c>
       <c r="D9" t="s">
         <v>15</v>
@@ -1005,7 +1014,7 @@
         <v>6</v>
       </c>
       <c r="C10">
-        <v>6.6</v>
+        <v>7.1</v>
       </c>
       <c r="D10" t="s">
         <v>13</v>
@@ -1019,7 +1028,7 @@
         <v>3</v>
       </c>
       <c r="C11">
-        <v>6.8</v>
+        <v>7.7</v>
       </c>
       <c r="D11" t="s">
         <v>11</v>
@@ -1060,13 +1069,13 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
       <c r="D2">
-        <v>-0.5</v>
+        <v>-0.09999999999999964</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1077,10 +1086,10 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="D3">
-        <v>0.4000000000000004</v>
+        <v>-1.3</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
@@ -1091,16 +1100,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C4">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>-0.5999999999999996</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1108,16 +1117,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>5.5</v>
+        <v>6.3</v>
       </c>
       <c r="D5">
-        <v>-0.5</v>
+        <v>1.3</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1125,16 +1134,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>5.5</v>
+        <v>6.1</v>
       </c>
       <c r="D6">
-        <v>-0.5</v>
+        <v>-1.9</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1142,16 +1151,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
         <v>6</v>
       </c>
-      <c r="C7">
-        <v>5.4</v>
-      </c>
       <c r="D7">
-        <v>0.4000000000000004</v>
+        <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1159,16 +1168,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C8">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="D8">
-        <v>0.2000000000000002</v>
+        <v>0.5</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1176,16 +1185,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C9">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="D9">
-        <v>1.2</v>
+        <v>-0.5</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1193,13 +1202,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>4.7</v>
+        <v>5.3</v>
       </c>
       <c r="D10">
-        <v>0.7000000000000002</v>
+        <v>0.2999999999999998</v>
       </c>
       <c r="E10" t="s">
         <v>15</v>
@@ -1210,16 +1219,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C11">
-        <v>4.6</v>
+        <v>5.3</v>
       </c>
       <c r="D11">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="E11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1257,10 +1266,10 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
@@ -1274,7 +1283,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
@@ -1288,13 +1297,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
         <v>27</v>
@@ -1305,13 +1314,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
         <v>28</v>
@@ -1322,13 +1331,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C6">
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
         <v>29</v>
@@ -1339,13 +1348,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7">
         <v>1</v>
       </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E7" t="s">
         <v>30</v>
@@ -1359,10 +1368,10 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>-7</v>
+        <v>-5</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
         <v>31</v>
@@ -1376,13 +1385,13 @@
         <v>6</v>
       </c>
       <c r="C9">
-        <v>-12</v>
+        <v>-7</v>
       </c>
       <c r="D9" t="s">
         <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1390,16 +1399,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C10">
-        <v>-16</v>
+        <v>-12</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1407,16 +1416,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C11">
         <v>-16</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/0755 Fantasy Football.xlsx
+++ b/0755 Fantasy Football.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pennoni1-my.sharepoint.com/personal/louie_rodriguez_pennoni_com/Documents/Desktop/repo/FantasyFootballApp/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="9" documentId="11_66E1364A93CEC1635920F1323A70EF7B84DB36E1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D01B32B7-6A15-468C-8EF9-47562E26984D}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="28680" yWindow="-210" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Schedule Grid" sheetId="1" r:id="rId1"/>
@@ -12,7 +18,7 @@
     <sheet name="Expected Wins" sheetId="3" r:id="rId3"/>
     <sheet name="Louie Power Index" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -94,41 +100,41 @@
     <t>Change From Last Week</t>
   </si>
   <si>
-    <t>-1</t>
-  </si>
-  <si>
-    <t>-5</t>
-  </si>
-  <si>
-    <t>+3</t>
-  </si>
-  <si>
-    <t>-7</t>
-  </si>
-  <si>
-    <t>+1</t>
-  </si>
-  <si>
-    <t>-2</t>
-  </si>
-  <si>
-    <t>+2</t>
-  </si>
-  <si>
-    <t>+5</t>
-  </si>
-  <si>
-    <t>+4</t>
-  </si>
-  <si>
     <t>0</t>
+  </si>
+  <si>
+    <t>↓1</t>
+  </si>
+  <si>
+    <t>↓5</t>
+  </si>
+  <si>
+    <t>↓7</t>
+  </si>
+  <si>
+    <t>↓2</t>
+  </si>
+  <si>
+    <t>↑3</t>
+  </si>
+  <si>
+    <t>↑1</t>
+  </si>
+  <si>
+    <t>↑2</t>
+  </si>
+  <si>
+    <t>↑5</t>
+  </si>
+  <si>
+    <t>↑4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -191,6 +197,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -237,7 +251,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -269,9 +283,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -303,6 +335,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -478,14 +528,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -520,7 +570,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -555,7 +605,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -590,7 +640,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -625,7 +675,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -660,7 +710,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -695,7 +745,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -730,7 +780,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -765,7 +815,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -800,7 +850,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -835,7 +885,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -876,14 +926,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
@@ -894,7 +944,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -902,13 +952,13 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="D2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -916,13 +966,13 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="D3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -936,7 +986,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -950,7 +1000,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -964,7 +1014,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -978,7 +1028,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -992,7 +1042,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1006,7 +1056,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1020,7 +1070,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1040,14 +1090,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
@@ -1061,7 +1111,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1072,13 +1122,13 @@
         <v>6.9</v>
       </c>
       <c r="D2">
-        <v>-0.09999999999999964</v>
+        <v>-9.9999999999999645E-2</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1095,7 +1145,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1106,13 +1156,13 @@
         <v>6.4</v>
       </c>
       <c r="D4">
-        <v>-0.5999999999999996</v>
+        <v>-0.59999999999999964</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1129,7 +1179,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1146,7 +1196,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1163,7 +1213,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1180,7 +1230,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1197,7 +1247,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1208,13 +1258,13 @@
         <v>5.3</v>
       </c>
       <c r="D10">
-        <v>0.2999999999999998</v>
+        <v>0.29999999999999982</v>
       </c>
       <c r="E10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1237,14 +1287,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
@@ -1258,7 +1310,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1272,10 +1324,10 @@
         <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1289,10 +1341,10 @@
         <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1306,10 +1358,10 @@
         <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1326,7 +1378,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1340,10 +1392,10 @@
         <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1357,10 +1409,10 @@
         <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1374,10 +1426,10 @@
         <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1391,10 +1443,10 @@
         <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1408,10 +1460,10 @@
         <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1425,7 +1477,7 @@
         <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/0755 Fantasy Football.xlsx
+++ b/0755 Fantasy Football.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pennoni1-my.sharepoint.com/personal/louie_rodriguez_pennoni_com/Documents/Desktop/repo/FantasyFootballApp/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="11_66E1364A93CEC1635920F1323A70EF7B84DB36E1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D01B32B7-6A15-468C-8EF9-47562E26984D}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-210" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Schedule Grid" sheetId="1" r:id="rId1"/>
@@ -18,12 +12,12 @@
     <sheet name="Expected Wins" sheetId="3" r:id="rId3"/>
     <sheet name="Louie Power Index" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="33">
   <si>
     <t>MOTHER MAY I</t>
   </si>
@@ -58,28 +52,31 @@
     <t>Teams</t>
   </si>
   <si>
-    <t>8 - 4 - 0</t>
-  </si>
-  <si>
-    <t>6 - 6 - 0</t>
-  </si>
-  <si>
-    <t>7 - 5 - 0</t>
-  </si>
-  <si>
-    <t>4 - 8 - 0</t>
-  </si>
-  <si>
-    <t>5 - 7 - 0</t>
-  </si>
-  <si>
-    <t>9 - 3 - 0</t>
-  </si>
-  <si>
-    <t>3 - 9 - 0</t>
-  </si>
-  <si>
-    <t>2 - 10 - 0</t>
+    <t>8 - 5 - 0</t>
+  </si>
+  <si>
+    <t>6 - 7 - 0</t>
+  </si>
+  <si>
+    <t>7 - 6 - 0</t>
+  </si>
+  <si>
+    <t>4 - 9 - 0</t>
+  </si>
+  <si>
+    <t>5 - 8 - 0</t>
+  </si>
+  <si>
+    <t>9 - 4 - 0</t>
+  </si>
+  <si>
+    <t>10 - 3 - 0</t>
+  </si>
+  <si>
+    <t>3 - 10 - 0</t>
+  </si>
+  <si>
+    <t>2 - 11 - 0</t>
   </si>
   <si>
     <t>Avg Wins Against Schedule</t>
@@ -100,41 +97,32 @@
     <t>Change From Last Week</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>↓1</t>
-  </si>
-  <si>
-    <t>↓5</t>
-  </si>
-  <si>
-    <t>↓7</t>
-  </si>
-  <si>
-    <t>↓2</t>
-  </si>
-  <si>
-    <t>↑3</t>
-  </si>
-  <si>
-    <t>↑1</t>
-  </si>
-  <si>
     <t>↑2</t>
   </si>
   <si>
     <t>↑5</t>
   </si>
   <si>
+    <t>↑7</t>
+  </si>
+  <si>
+    <t>↓4</t>
+  </si>
+  <si>
     <t>↑4</t>
+  </si>
+  <si>
+    <t>↓8</t>
+  </si>
+  <si>
+    <t>↓6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -197,14 +185,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -251,7 +231,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -283,27 +263,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -335,24 +297,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -528,14 +472,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -570,7 +514,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -578,7 +522,7 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -593,19 +537,19 @@
         <v>15</v>
       </c>
       <c r="H2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I2" t="s">
         <v>13</v>
       </c>
       <c r="J2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -613,7 +557,7 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
@@ -622,25 +566,25 @@
         <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
         <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I3" t="s">
         <v>12</v>
       </c>
       <c r="J3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -648,34 +592,34 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
       </c>
       <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" t="s">
         <v>11</v>
       </c>
-      <c r="F4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -683,34 +627,34 @@
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" t="s">
         <v>16</v>
       </c>
-      <c r="I5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" t="s">
-        <v>11</v>
-      </c>
       <c r="K5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -718,7 +662,7 @@
         <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
         <v>15</v>
@@ -733,54 +677,54 @@
         <v>15</v>
       </c>
       <c r="H6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I6" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="J6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -809,48 +753,48 @@
         <v>13</v>
       </c>
       <c r="J8" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="K8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
       </c>
       <c r="E9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" t="s">
         <v>16</v>
       </c>
-      <c r="F9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" t="s">
-        <v>15</v>
-      </c>
-      <c r="J9" t="s">
-        <v>11</v>
-      </c>
       <c r="K9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -858,7 +802,7 @@
         <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
@@ -879,13 +823,13 @@
         <v>12</v>
       </c>
       <c r="J10" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -902,7 +846,7 @@
         <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G11" t="s">
         <v>14</v>
@@ -926,25 +870,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -952,13 +896,13 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>4.5999999999999996</v>
+        <v>4.9</v>
       </c>
       <c r="D2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -966,13 +910,13 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>4.9000000000000004</v>
+        <v>5.2</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -980,41 +924,41 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>5.8</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>5.4</v>
+        <v>6.1</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C6">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1022,13 +966,13 @@
         <v>2</v>
       </c>
       <c r="C7">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="D7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1036,13 +980,13 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1050,13 +994,13 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>6.7</v>
+        <v>7.6</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1064,13 +1008,13 @@
         <v>6</v>
       </c>
       <c r="C10">
-        <v>7.1</v>
+        <v>7.8</v>
       </c>
       <c r="D10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1078,10 +1022,10 @@
         <v>3</v>
       </c>
       <c r="C11">
-        <v>7.7</v>
+        <v>8.1</v>
       </c>
       <c r="D11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1090,28 +1034,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1119,16 +1063,16 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>6.9</v>
+        <v>7.5</v>
       </c>
       <c r="D2">
-        <v>-9.9999999999999645E-2</v>
+        <v>0.5</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1136,118 +1080,118 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>6.7</v>
+        <v>7.1</v>
       </c>
       <c r="D3">
-        <v>-1.3</v>
+        <v>-0.9000000000000004</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>6.4</v>
+        <v>6.9</v>
       </c>
       <c r="D4">
-        <v>-0.59999999999999964</v>
+        <v>-2.1</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C5">
-        <v>6.3</v>
+        <v>6.9</v>
       </c>
       <c r="D5">
-        <v>1.3</v>
+        <v>0.9000000000000004</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>6.1</v>
+        <v>6.8</v>
       </c>
       <c r="D6">
-        <v>-1.9</v>
+        <v>1.8</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C8">
-        <v>5.5</v>
+        <v>6.3</v>
       </c>
       <c r="D8">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="E8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="D9">
-        <v>-0.5</v>
+        <v>-0.2000000000000002</v>
       </c>
       <c r="E9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1255,30 +1199,30 @@
         <v>1</v>
       </c>
       <c r="C10">
-        <v>5.3</v>
+        <v>5.7</v>
       </c>
       <c r="D10">
-        <v>0.29999999999999982</v>
+        <v>-0.2999999999999998</v>
       </c>
       <c r="E10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C11">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="D11">
-        <v>1.3</v>
+        <v>-0.5</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1287,30 +1231,28 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1318,7 +1260,7 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
         <v>15</v>
@@ -1327,58 +1269,58 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1386,98 +1328,98 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C8">
-        <v>-5</v>
+        <v>-7</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C9">
-        <v>-7</v>
+        <v>-12</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C10">
-        <v>-12</v>
+        <v>-13</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C11">
-        <v>-16</v>
+        <v>-18</v>
       </c>
       <c r="D11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/0755 Fantasy Football.xlsx
+++ b/0755 Fantasy Football.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="35">
   <si>
     <t>MOTHER MAY I</t>
   </si>
@@ -52,31 +52,34 @@
     <t>Teams</t>
   </si>
   <si>
-    <t>8 - 5 - 0</t>
-  </si>
-  <si>
-    <t>6 - 7 - 0</t>
-  </si>
-  <si>
-    <t>7 - 6 - 0</t>
-  </si>
-  <si>
-    <t>4 - 9 - 0</t>
-  </si>
-  <si>
-    <t>5 - 8 - 0</t>
-  </si>
-  <si>
-    <t>9 - 4 - 0</t>
-  </si>
-  <si>
-    <t>10 - 3 - 0</t>
-  </si>
-  <si>
-    <t>3 - 10 - 0</t>
-  </si>
-  <si>
-    <t>2 - 11 - 0</t>
+    <t>9 - 5 - 0</t>
+  </si>
+  <si>
+    <t>7 - 7 - 0</t>
+  </si>
+  <si>
+    <t>8 - 6 - 0</t>
+  </si>
+  <si>
+    <t>5 - 9 - 0</t>
+  </si>
+  <si>
+    <t>6 - 8 - 0</t>
+  </si>
+  <si>
+    <t>4 - 10 - 0</t>
+  </si>
+  <si>
+    <t>10 - 4 - 0</t>
+  </si>
+  <si>
+    <t>11 - 3 - 0</t>
+  </si>
+  <si>
+    <t>3 - 11 - 0</t>
+  </si>
+  <si>
+    <t>2 - 12 - 0</t>
   </si>
   <si>
     <t>Avg Wins Against Schedule</t>
@@ -97,25 +100,28 @@
     <t>Change From Last Week</t>
   </si>
   <si>
+    <t>↑1</t>
+  </si>
+  <si>
+    <t>↑4</t>
+  </si>
+  <si>
     <t>↑2</t>
   </si>
   <si>
-    <t>↑5</t>
-  </si>
-  <si>
-    <t>↑7</t>
-  </si>
-  <si>
-    <t>↓4</t>
-  </si>
-  <si>
-    <t>↑4</t>
-  </si>
-  <si>
-    <t>↓8</t>
-  </si>
-  <si>
-    <t>↓6</t>
+    <t>↓5</t>
+  </si>
+  <si>
+    <t>↑6</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>↓1</t>
+  </si>
+  <si>
+    <t>↓7</t>
   </si>
 </sst>
 </file>
@@ -522,13 +528,13 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
@@ -537,16 +543,16 @@
         <v>15</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J2" t="s">
         <v>13</v>
       </c>
       <c r="K2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -557,31 +563,31 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" t="s">
         <v>16</v>
-      </c>
-      <c r="I3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -592,13 +598,13 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F4" t="s">
         <v>15</v>
@@ -607,16 +613,16 @@
         <v>15</v>
       </c>
       <c r="H4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" t="s">
         <v>17</v>
       </c>
-      <c r="I4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" t="s">
-        <v>16</v>
-      </c>
       <c r="K4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -627,13 +633,13 @@
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
         <v>15</v>
@@ -645,13 +651,13 @@
         <v>17</v>
       </c>
       <c r="I5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -662,13 +668,13 @@
         <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F6" t="s">
         <v>15</v>
@@ -680,7 +686,7 @@
         <v>11</v>
       </c>
       <c r="I6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J6" t="s">
         <v>13</v>
@@ -732,10 +738,10 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
         <v>11</v>
@@ -750,13 +756,13 @@
         <v>13</v>
       </c>
       <c r="I8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -767,28 +773,28 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
       </c>
       <c r="E9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" t="s">
         <v>17</v>
-      </c>
-      <c r="F9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" t="s">
-        <v>11</v>
-      </c>
-      <c r="I9" t="s">
-        <v>12</v>
-      </c>
-      <c r="J9" t="s">
-        <v>16</v>
       </c>
       <c r="K9" t="s">
         <v>13</v>
@@ -799,34 +805,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G10" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H10" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I10" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J10" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -837,31 +843,31 @@
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G11" t="s">
         <v>14</v>
       </c>
       <c r="H11" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I11" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K11" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -882,10 +888,10 @@
         <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -896,7 +902,7 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>4.9</v>
+        <v>5.6</v>
       </c>
       <c r="D2" t="s">
         <v>15</v>
@@ -907,10 +913,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>5.2</v>
+        <v>5.9</v>
       </c>
       <c r="D3" t="s">
         <v>15</v>
@@ -921,13 +927,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -935,13 +941,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>6.1</v>
+        <v>6.5</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -952,10 +958,10 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>6.2</v>
+        <v>6.5</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -963,13 +969,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>6.3</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -980,7 +986,7 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>7</v>
+        <v>7.3</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
@@ -991,13 +997,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C9">
-        <v>7.6</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1005,13 +1011,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C10">
-        <v>7.8</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1022,10 +1028,10 @@
         <v>3</v>
       </c>
       <c r="C11">
-        <v>8.1</v>
+        <v>8.6</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1046,13 +1052,13 @@
         <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1063,13 +1069,13 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>7.5</v>
+        <v>8.1</v>
       </c>
       <c r="D2">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1077,16 +1083,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C3">
-        <v>7.1</v>
+        <v>7.8</v>
       </c>
       <c r="D3">
-        <v>-0.9000000000000004</v>
+        <v>0.7999999999999998</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1094,16 +1100,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4">
-        <v>6.9</v>
+        <v>7.6</v>
       </c>
       <c r="D4">
-        <v>-2.1</v>
+        <v>1.6</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1111,16 +1117,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>6.9</v>
+        <v>7.5</v>
       </c>
       <c r="D5">
-        <v>0.9000000000000004</v>
+        <v>-1.5</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1128,16 +1134,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>6.8</v>
+        <v>7.3</v>
       </c>
       <c r="D6">
-        <v>1.8</v>
+        <v>-1.7</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1145,16 +1151,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>6.5</v>
+        <v>7.3</v>
       </c>
       <c r="D7">
-        <v>-0.5</v>
+        <v>1.3</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1162,16 +1168,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8">
-        <v>6.3</v>
+        <v>7.1</v>
       </c>
       <c r="D8">
-        <v>1.3</v>
+        <v>-0.9000000000000004</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1179,7 +1185,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C9">
         <v>5.8</v>
@@ -1188,7 +1194,7 @@
         <v>-0.2000000000000002</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1196,16 +1202,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C10">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="D10">
-        <v>-0.2999999999999998</v>
+        <v>-0.2000000000000002</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1216,13 +1222,13 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="D11">
-        <v>-0.5</v>
+        <v>-0.2999999999999998</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1243,13 +1249,13 @@
         <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1260,13 +1266,13 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
         <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1277,13 +1283,13 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1294,13 +1300,13 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
         <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1311,13 +1317,13 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1325,16 +1331,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C6">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
         <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1342,16 +1348,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C7">
         <v>-1</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1362,13 +1368,13 @@
         <v>9</v>
       </c>
       <c r="C8">
-        <v>-7</v>
+        <v>-8</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1376,16 +1382,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C9">
         <v>-12</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1393,16 +1399,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C10">
         <v>-13</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1413,13 +1419,13 @@
         <v>8</v>
       </c>
       <c r="C11">
-        <v>-18</v>
+        <v>-25</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
